--- a/story/Activity Story 活动剧情/act7d5 Stories of Afternoon 午间逸话 午後の逸話/level_act7d5_st06.xlsx
+++ b/story/Activity Story 活动剧情/act7d5 Stories of Afternoon 午间逸话 午後の逸話/level_act7d5_st06.xlsx
@@ -4080,7 +4080,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="도베르만"]     볼리바르에는 세 개의 세력이 있다. 첫 번째는 라이타니엔의 꼭두각시 정부다. 그들이 주도한 컬럼비아와의 전쟁에서 승리한 공적 덕분에, 명목상으론 공식 세력이 되었지.
+    <t xml:space="preserve">[name="도베르만"]     볼리바르에는 세 개의 세력이 있다. 첫 번째는 라이타니아의 꼭두각시 정부다. 그들이 주도한 컬럼비아와의 전쟁에서 승리한 공적 덕분에, 명목상으론 공식 세력이 되었지.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act7d5 Stories of Afternoon 午间逸话 午後の逸話/level_act7d5_st06.xlsx
+++ b/story/Activity Story 活动剧情/act7d5 Stories of Afternoon 午间逸话 午後の逸話/level_act7d5_st06.xlsx
@@ -2636,7 +2636,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Instructor Grace"]     Yeah. Like the "Bolívarian Civil War" you see on the news. That Bolívar. We all wonder exactly how Dobermann got to be as great as she is, but she never talks that much about her time in Bolívar.
+    <t xml:space="preserve">[name="Instructor Grace"]     Yeah. Like the 'Bolívarian Civil War' you see on the news. That Bolívar. We all wonder exactly how Dobermann got to be as great as she is, but she never talks that much about her time in Bolívar.
 </t>
   </si>
   <si>
@@ -3148,7 +3148,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Beagle"]     But we have such amazing operators. Like Skyfire, she goes "swoosh" with her staff and everything goes "fwoom!"
+    <t xml:space="preserve">[name="Beagle"]     But we have such amazing operators. Like Skyfire, she goes 'swoosh' with her staff and everything goes 'fwoom!'
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act7d5 Stories of Afternoon 午间逸话 午後の逸話/level_act7d5_st06.xlsx
+++ b/story/Activity Story 活动剧情/act7d5 Stories of Afternoon 午间逸话 午後の逸話/level_act7d5_st06.xlsx
@@ -2328,7 +2328,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">10:21 AM Rhodes Island Training Ground
+    <t xml:space="preserve">10:21 A.M. Rhodes Island Training Ground
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act7d5 Stories of Afternoon 午间逸话 午後の逸話/level_act7d5_st06.xlsx
+++ b/story/Activity Story 活动剧情/act7d5 Stories of Afternoon 午间逸话 午後の逸話/level_act7d5_st06.xlsx
@@ -4080,7 +4080,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="도베르만"]     볼리바르에는 세 개의 세력이 있다. 첫 번째는 라이타니아의 꼭두각시 정부다. 그들이 주도한 컬럼비아와의 전쟁에서 승리한 공적 덕분에, 명목상으론 공식 세력이 되었지.
+    <t xml:space="preserve">[name="도베르만"]     볼리바르에는 세 개의 세력이 있다. 첫 번째는 라이타니엔의 꼭두각시 정부다. 그들이 주도한 컬럼비아와의 전쟁에서 승리한 공적 덕분에, 명목상으론 공식 세력이 되었지.
 </t>
   </si>
   <si>
